--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Il16-Grin2d.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Il16-Grin2d.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.67001101783191</v>
+        <v>6.566789</v>
       </c>
       <c r="H2">
-        <v>5.67001101783191</v>
+        <v>19.700367</v>
       </c>
       <c r="I2">
-        <v>0.3478146059083807</v>
+        <v>0.3634074580963036</v>
       </c>
       <c r="J2">
-        <v>0.3478146059083807</v>
+        <v>0.3634074580963036</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.01009102144182</v>
+        <v>0.06287633333333333</v>
       </c>
       <c r="N2">
-        <v>3.01009102144182</v>
+        <v>0.188629</v>
       </c>
       <c r="O2">
-        <v>0.8567315168350176</v>
+        <v>0.01674921743188729</v>
       </c>
       <c r="P2">
-        <v>0.8567315168350176</v>
+        <v>0.01674921743188729</v>
       </c>
       <c r="Q2">
-        <v>17.06724925625203</v>
+        <v>0.4128956140936666</v>
       </c>
       <c r="R2">
-        <v>17.06724925625203</v>
+        <v>3.716060526843</v>
       </c>
       <c r="S2">
-        <v>0.2979837348972609</v>
+        <v>0.006086790532024458</v>
       </c>
       <c r="T2">
-        <v>0.2979837348972609</v>
+        <v>0.006086790532024459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.67001101783191</v>
+        <v>6.566789</v>
       </c>
       <c r="H3">
-        <v>5.67001101783191</v>
+        <v>19.700367</v>
       </c>
       <c r="I3">
-        <v>0.3478146059083807</v>
+        <v>0.3634074580963036</v>
       </c>
       <c r="J3">
-        <v>0.3478146059083807</v>
+        <v>0.3634074580963036</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.503367935410679</v>
+        <v>3.112268</v>
       </c>
       <c r="N3">
-        <v>0.503367935410679</v>
+        <v>9.336804000000001</v>
       </c>
       <c r="O3">
-        <v>0.1432684831649824</v>
+        <v>0.8290568275022134</v>
       </c>
       <c r="P3">
-        <v>0.1432684831649824</v>
+        <v>0.8290568275022134</v>
       </c>
       <c r="Q3">
-        <v>2.854101739801851</v>
+        <v>20.437607267452</v>
       </c>
       <c r="R3">
-        <v>2.854101739801851</v>
+        <v>183.938465407068</v>
       </c>
       <c r="S3">
-        <v>0.04983087101111985</v>
+        <v>0.301285434299965</v>
       </c>
       <c r="T3">
-        <v>0.04983087101111985</v>
+        <v>0.301285434299965</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.34875118187922</v>
+        <v>6.566789</v>
       </c>
       <c r="H4">
-        <v>6.34875118187922</v>
+        <v>19.700367</v>
       </c>
       <c r="I4">
-        <v>0.3894504584543207</v>
+        <v>0.3634074580963036</v>
       </c>
       <c r="J4">
-        <v>0.3894504584543207</v>
+        <v>0.3634074580963036</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.01009102144182</v>
+        <v>0.578842</v>
       </c>
       <c r="N4">
-        <v>3.01009102144182</v>
+        <v>1.736526</v>
       </c>
       <c r="O4">
-        <v>0.8567315168350176</v>
+        <v>0.1541939550658993</v>
       </c>
       <c r="P4">
-        <v>0.8567315168350176</v>
+        <v>0.1541939550658993</v>
       </c>
       <c r="Q4">
-        <v>19.11031892994278</v>
+        <v>3.801133278338</v>
       </c>
       <c r="R4">
-        <v>19.11031892994278</v>
+        <v>34.210199505042</v>
       </c>
       <c r="S4">
-        <v>0.3336544820036632</v>
+        <v>0.0560352332643141</v>
       </c>
       <c r="T4">
-        <v>0.3336544820036632</v>
+        <v>0.05603523326431411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.34875118187922</v>
+        <v>6.440526333333334</v>
       </c>
       <c r="H5">
-        <v>6.34875118187922</v>
+        <v>19.321579</v>
       </c>
       <c r="I5">
-        <v>0.3894504584543207</v>
+        <v>0.3564200560729107</v>
       </c>
       <c r="J5">
-        <v>0.3894504584543207</v>
+        <v>0.3564200560729107</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.503367935410679</v>
+        <v>0.06287633333333333</v>
       </c>
       <c r="N5">
-        <v>0.503367935410679</v>
+        <v>0.188629</v>
       </c>
       <c r="O5">
-        <v>0.1432684831649824</v>
+        <v>0.01674921743188729</v>
       </c>
       <c r="P5">
-        <v>0.1432684831649824</v>
+        <v>0.01674921743188729</v>
       </c>
       <c r="Q5">
-        <v>3.195757774858651</v>
+        <v>0.4049566805767777</v>
       </c>
       <c r="R5">
-        <v>3.195757774858651</v>
+        <v>3.644610125191</v>
       </c>
       <c r="S5">
-        <v>0.05579597645065755</v>
+        <v>0.005969757016250641</v>
       </c>
       <c r="T5">
-        <v>0.05579597645065755</v>
+        <v>0.005969757016250641</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.12178776373301</v>
+        <v>6.440526333333334</v>
       </c>
       <c r="H6">
-        <v>4.12178776373301</v>
+        <v>19.321579</v>
       </c>
       <c r="I6">
-        <v>0.2528421871090062</v>
+        <v>0.3564200560729107</v>
       </c>
       <c r="J6">
-        <v>0.2528421871090062</v>
+        <v>0.3564200560729107</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.01009102144182</v>
+        <v>3.112268</v>
       </c>
       <c r="N6">
-        <v>3.01009102144182</v>
+        <v>9.336804000000001</v>
       </c>
       <c r="O6">
-        <v>0.8567315168350176</v>
+        <v>0.8290568275022134</v>
       </c>
       <c r="P6">
-        <v>0.8567315168350176</v>
+        <v>0.8290568275022134</v>
       </c>
       <c r="Q6">
-        <v>12.40695633990149</v>
+        <v>20.04464401039067</v>
       </c>
       <c r="R6">
-        <v>12.40695633990149</v>
+        <v>180.401796093516</v>
       </c>
       <c r="S6">
-        <v>0.2166178704817822</v>
+        <v>0.2954924809459684</v>
       </c>
       <c r="T6">
-        <v>0.2166178704817822</v>
+        <v>0.2954924809459684</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.12178776373301</v>
+        <v>6.440526333333334</v>
       </c>
       <c r="H7">
-        <v>4.12178776373301</v>
+        <v>19.321579</v>
       </c>
       <c r="I7">
-        <v>0.2528421871090062</v>
+        <v>0.3564200560729107</v>
       </c>
       <c r="J7">
-        <v>0.2528421871090062</v>
+        <v>0.3564200560729107</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.503367935410679</v>
+        <v>0.578842</v>
       </c>
       <c r="N7">
-        <v>0.503367935410679</v>
+        <v>1.736526</v>
       </c>
       <c r="O7">
-        <v>0.1432684831649824</v>
+        <v>0.1541939550658993</v>
       </c>
       <c r="P7">
-        <v>0.1432684831649824</v>
+        <v>0.1541939550658993</v>
       </c>
       <c r="Q7">
-        <v>2.074775796831285</v>
+        <v>3.728047143839333</v>
       </c>
       <c r="R7">
-        <v>2.074775796831285</v>
+        <v>33.552424294554</v>
       </c>
       <c r="S7">
-        <v>0.03622431662722399</v>
+        <v>0.05495781811069169</v>
       </c>
       <c r="T7">
-        <v>0.03622431662722399</v>
+        <v>0.05495781811069169</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.161269803508001</v>
+        <v>4.846355333333333</v>
       </c>
       <c r="H8">
-        <v>0.161269803508001</v>
+        <v>14.539066</v>
       </c>
       <c r="I8">
-        <v>0.009892748528292229</v>
+        <v>0.2681983040292799</v>
       </c>
       <c r="J8">
-        <v>0.009892748528292229</v>
+        <v>0.2681983040292799</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.01009102144182</v>
+        <v>0.06287633333333333</v>
       </c>
       <c r="N8">
-        <v>3.01009102144182</v>
+        <v>0.188629</v>
       </c>
       <c r="O8">
-        <v>0.8567315168350176</v>
+        <v>0.01674921743188729</v>
       </c>
       <c r="P8">
-        <v>0.8567315168350176</v>
+        <v>0.01674921743188729</v>
       </c>
       <c r="Q8">
-        <v>0.4854367875691203</v>
+        <v>0.3047210533904444</v>
       </c>
       <c r="R8">
-        <v>0.4854367875691203</v>
+        <v>2.742489480514</v>
       </c>
       <c r="S8">
-        <v>0.00847542945231119</v>
+        <v>0.004492111709049821</v>
       </c>
       <c r="T8">
-        <v>0.00847542945231119</v>
+        <v>0.004492111709049822</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.846355333333333</v>
+      </c>
+      <c r="H9">
+        <v>14.539066</v>
+      </c>
+      <c r="I9">
+        <v>0.2681983040292799</v>
+      </c>
+      <c r="J9">
+        <v>0.2681983040292799</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.112268</v>
+      </c>
+      <c r="N9">
+        <v>9.336804000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.8290568275022134</v>
+      </c>
+      <c r="P9">
+        <v>0.8290568275022134</v>
+      </c>
+      <c r="Q9">
+        <v>15.08315662056267</v>
+      </c>
+      <c r="R9">
+        <v>135.748409585064</v>
+      </c>
+      <c r="S9">
+        <v>0.2223516350799889</v>
+      </c>
+      <c r="T9">
+        <v>0.2223516350799889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.161269803508001</v>
-      </c>
-      <c r="H9">
-        <v>0.161269803508001</v>
-      </c>
-      <c r="I9">
-        <v>0.009892748528292229</v>
-      </c>
-      <c r="J9">
-        <v>0.009892748528292229</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.503367935410679</v>
-      </c>
-      <c r="N9">
-        <v>0.503367935410679</v>
-      </c>
-      <c r="O9">
-        <v>0.1432684831649824</v>
-      </c>
-      <c r="P9">
-        <v>0.1432684831649824</v>
-      </c>
-      <c r="Q9">
-        <v>0.08117804803590835</v>
-      </c>
-      <c r="R9">
-        <v>0.08117804803590835</v>
-      </c>
-      <c r="S9">
-        <v>0.00141731907598104</v>
-      </c>
-      <c r="T9">
-        <v>0.00141731907598104</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.846355333333333</v>
+      </c>
+      <c r="H10">
+        <v>14.539066</v>
+      </c>
+      <c r="I10">
+        <v>0.2681983040292799</v>
+      </c>
+      <c r="J10">
+        <v>0.2681983040292799</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.578842</v>
+      </c>
+      <c r="N10">
+        <v>1.736526</v>
+      </c>
+      <c r="O10">
+        <v>0.1541939550658993</v>
+      </c>
+      <c r="P10">
+        <v>0.1541939550658993</v>
+      </c>
+      <c r="Q10">
+        <v>2.805274013857333</v>
+      </c>
+      <c r="R10">
+        <v>25.247466124716</v>
+      </c>
+      <c r="S10">
+        <v>0.04135455724024117</v>
+      </c>
+      <c r="T10">
+        <v>0.04135455724024117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.216374</v>
+      </c>
+      <c r="H11">
+        <v>0.6491220000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.01197418180150597</v>
+      </c>
+      <c r="J11">
+        <v>0.01197418180150597</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.06287633333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.188629</v>
+      </c>
+      <c r="O11">
+        <v>0.01674921743188729</v>
+      </c>
+      <c r="P11">
+        <v>0.01674921743188729</v>
+      </c>
+      <c r="Q11">
+        <v>0.01360480374866667</v>
+      </c>
+      <c r="R11">
+        <v>0.122443233738</v>
+      </c>
+      <c r="S11">
+        <v>0.0002005581745623714</v>
+      </c>
+      <c r="T11">
+        <v>0.0002005581745623714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.216374</v>
+      </c>
+      <c r="H12">
+        <v>0.6491220000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.01197418180150597</v>
+      </c>
+      <c r="J12">
+        <v>0.01197418180150597</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.112268</v>
+      </c>
+      <c r="N12">
+        <v>9.336804000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.8290568275022134</v>
+      </c>
+      <c r="P12">
+        <v>0.8290568275022134</v>
+      </c>
+      <c r="Q12">
+        <v>0.6734138762320002</v>
+      </c>
+      <c r="R12">
+        <v>6.060724886088002</v>
+      </c>
+      <c r="S12">
+        <v>0.00992727717629128</v>
+      </c>
+      <c r="T12">
+        <v>0.00992727717629128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.216374</v>
+      </c>
+      <c r="H13">
+        <v>0.6491220000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.01197418180150597</v>
+      </c>
+      <c r="J13">
+        <v>0.01197418180150597</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.578842</v>
+      </c>
+      <c r="N13">
+        <v>1.736526</v>
+      </c>
+      <c r="O13">
+        <v>0.1541939550658993</v>
+      </c>
+      <c r="P13">
+        <v>0.1541939550658993</v>
+      </c>
+      <c r="Q13">
+        <v>0.125246358908</v>
+      </c>
+      <c r="R13">
+        <v>1.127217230172</v>
+      </c>
+      <c r="S13">
+        <v>0.001846346450652321</v>
+      </c>
+      <c r="T13">
+        <v>0.001846346450652321</v>
       </c>
     </row>
   </sheetData>
